--- a/Capstone Project/BudgetAllocationNew.xlsx
+++ b/Capstone Project/BudgetAllocationNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\upgrad\data-science-projects-master (1)\data-science-projects-master\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46271FF-20BE-4818-9DEE-0337C1C646D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82685F0-29C3-435E-8381-72C41E69AF20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676" xr2:uid="{F575F0FE-BC65-4845-9524-2AE5E21116C5}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M54"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -518,7 +518,7 @@
         <v>2015</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -559,7 +559,7 @@
         <v>2015</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -600,7 +600,7 @@
         <v>2015</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -641,7 +641,7 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -682,7 +682,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -723,7 +723,7 @@
         <v>2015</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -764,7 +764,7 @@
         <v>2015</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -805,7 +805,7 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -846,7 +846,7 @@
         <v>2015</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -887,7 +887,7 @@
         <v>2015</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -928,7 +928,7 @@
         <v>2015</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -969,7 +969,7 @@
         <v>2015</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1010,7 +1010,7 @@
         <v>2015</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1051,7 +1051,7 @@
         <v>2015</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1092,7 +1092,7 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1133,7 +1133,7 @@
         <v>2015</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1174,7 +1174,7 @@
         <v>2015</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1215,7 +1215,7 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1256,7 +1256,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1297,7 +1297,7 @@
         <v>2015</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1338,7 +1338,7 @@
         <v>2015</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1379,7 +1379,7 @@
         <v>2015</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1420,7 +1420,7 @@
         <v>2015</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1461,7 +1461,7 @@
         <v>2015</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1502,7 +1502,7 @@
         <v>2015</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1543,7 +1543,7 @@
         <v>2015</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1584,7 +1584,7 @@
         <v>2016</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1625,7 +1625,7 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>2016</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1707,7 +1707,7 @@
         <v>2016</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1748,7 +1748,7 @@
         <v>2016</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1789,7 +1789,7 @@
         <v>2016</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1830,7 +1830,7 @@
         <v>2016</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1871,7 +1871,7 @@
         <v>2016</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1912,7 +1912,7 @@
         <v>2016</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1953,7 +1953,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1994,7 +1994,7 @@
         <v>2016</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -2035,7 +2035,7 @@
         <v>2016</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -2076,7 +2076,7 @@
         <v>2016</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -2117,7 +2117,7 @@
         <v>2016</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -2158,7 +2158,7 @@
         <v>2016</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -2199,7 +2199,7 @@
         <v>2016</v>
       </c>
       <c r="B44">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -2240,7 +2240,7 @@
         <v>2016</v>
       </c>
       <c r="B45">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -2281,7 +2281,7 @@
         <v>2016</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2322,7 +2322,7 @@
         <v>2016</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2363,7 +2363,7 @@
         <v>2016</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -2404,7 +2404,7 @@
         <v>2016</v>
       </c>
       <c r="B49">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -2445,7 +2445,7 @@
         <v>2016</v>
       </c>
       <c r="B50">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -2486,7 +2486,7 @@
         <v>2016</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2527,7 +2527,7 @@
         <v>2016</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -2568,7 +2568,7 @@
         <v>2016</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -2609,7 +2609,7 @@
         <v>2016</v>
       </c>
       <c r="B54">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>5</v>

--- a/Capstone Project/BudgetAllocationNew.xlsx
+++ b/Capstone Project/BudgetAllocationNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\upgrad\data-science-projects-master (1)\data-science-projects-master\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82685F0-29C3-435E-8381-72C41E69AF20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D73C987-D48C-485C-89C9-EA439E285933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676" xr2:uid="{F575F0FE-BC65-4845-9524-2AE5E21116C5}"/>
   </bookViews>
@@ -30,15 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>week</t>
-  </si>
-  <si>
-    <t>split</t>
   </si>
   <si>
     <t>Total Investment</t>
@@ -422,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8577228-96AE-47D5-85B5-F66C8D155A87}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +466,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -480,31 +477,31 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3.4200000000000004</v>
       </c>
       <c r="D2">
-        <v>3.4200000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1.48</v>
       </c>
       <c r="G2">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I2">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -521,31 +518,31 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3.4200000000000004</v>
       </c>
       <c r="D3">
-        <v>3.4200000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1.48</v>
       </c>
       <c r="G3">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I3">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -562,31 +559,31 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3.4200000000000004</v>
       </c>
       <c r="D4">
-        <v>3.4200000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="E4">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1.48</v>
       </c>
       <c r="G4">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I4">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -603,31 +600,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3.4200000000000004</v>
       </c>
       <c r="D5">
-        <v>3.4200000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="E5">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1.48</v>
       </c>
       <c r="G5">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I5">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -644,31 +641,31 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3.4200000000000004</v>
       </c>
       <c r="D6">
-        <v>3.4200000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="E6">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1.48</v>
       </c>
       <c r="G6">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I6">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -685,31 +682,31 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="D7">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F7">
-        <v>0.32500000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G7">
-        <v>0.27500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I7">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J7">
-        <v>2.5000000000000001E-2</v>
+        <v>0.625</v>
       </c>
       <c r="K7">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -726,31 +723,31 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="D8">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F8">
-        <v>0.32500000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G8">
-        <v>0.27500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I8">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.625</v>
       </c>
       <c r="K8">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -767,31 +764,31 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="D9">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F9">
-        <v>0.32500000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G9">
-        <v>0.27500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J9">
-        <v>2.5000000000000001E-2</v>
+        <v>0.625</v>
       </c>
       <c r="K9">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -808,31 +805,31 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="D10">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F10">
-        <v>0.32500000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G10">
-        <v>0.27500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I10">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.625</v>
       </c>
       <c r="K10">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -849,31 +846,31 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>19.259999999999998</v>
       </c>
       <c r="D11">
-        <v>19.259999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="E11">
-        <v>0.78</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="F11">
-        <v>0.27999999999999997</v>
+        <v>12.559999999999999</v>
       </c>
       <c r="G11">
-        <v>12.559999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H11">
-        <v>0.12</v>
+        <v>3.28</v>
       </c>
       <c r="I11">
-        <v>3.28</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="K11">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -890,31 +887,31 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>19.259999999999998</v>
       </c>
       <c r="D12">
-        <v>19.259999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="E12">
-        <v>0.78</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="F12">
-        <v>0.27999999999999997</v>
+        <v>12.559999999999999</v>
       </c>
       <c r="G12">
-        <v>12.559999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H12">
-        <v>0.12</v>
+        <v>3.28</v>
       </c>
       <c r="I12">
-        <v>3.28</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="K12">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -931,31 +928,31 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>19.259999999999998</v>
       </c>
       <c r="D13">
-        <v>19.259999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="E13">
-        <v>0.78</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="F13">
-        <v>0.27999999999999997</v>
+        <v>12.559999999999999</v>
       </c>
       <c r="G13">
-        <v>12.559999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H13">
-        <v>0.12</v>
+        <v>3.28</v>
       </c>
       <c r="I13">
-        <v>3.28</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="K13">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -972,31 +969,31 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>19.259999999999998</v>
       </c>
       <c r="D14">
-        <v>19.259999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="E14">
-        <v>0.78</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="F14">
-        <v>0.27999999999999997</v>
+        <v>12.559999999999999</v>
       </c>
       <c r="G14">
-        <v>12.559999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H14">
-        <v>0.12</v>
+        <v>3.28</v>
       </c>
       <c r="I14">
-        <v>3.28</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="K14">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1013,31 +1010,31 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>19.259999999999998</v>
       </c>
       <c r="D15">
-        <v>19.259999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="E15">
-        <v>0.78</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="F15">
-        <v>0.27999999999999997</v>
+        <v>12.559999999999999</v>
       </c>
       <c r="G15">
-        <v>12.559999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H15">
-        <v>0.12</v>
+        <v>3.28</v>
       </c>
       <c r="I15">
-        <v>3.28</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="K15">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1054,31 +1051,31 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>34.04</v>
       </c>
       <c r="D16">
-        <v>34.04</v>
+        <v>1.22</v>
       </c>
       <c r="E16">
-        <v>1.22</v>
+        <v>3.15</v>
       </c>
       <c r="F16">
-        <v>3.15</v>
+        <v>21.175000000000001</v>
       </c>
       <c r="G16">
-        <v>21.175000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H16">
-        <v>0.85</v>
+        <v>6.1</v>
       </c>
       <c r="I16">
-        <v>6.1</v>
+        <v>1.75</v>
       </c>
       <c r="J16">
-        <v>1.75</v>
+        <v>7.9749999999999996</v>
       </c>
       <c r="K16">
-        <v>7.9749999999999996</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1095,31 +1092,31 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>34.04</v>
       </c>
       <c r="D17">
-        <v>34.04</v>
+        <v>1.22</v>
       </c>
       <c r="E17">
-        <v>1.22</v>
+        <v>3.15</v>
       </c>
       <c r="F17">
-        <v>3.15</v>
+        <v>21.175000000000001</v>
       </c>
       <c r="G17">
-        <v>21.175000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H17">
-        <v>0.85</v>
+        <v>6.1</v>
       </c>
       <c r="I17">
-        <v>6.1</v>
+        <v>1.75</v>
       </c>
       <c r="J17">
-        <v>1.75</v>
+        <v>7.9749999999999996</v>
       </c>
       <c r="K17">
-        <v>7.9749999999999996</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1136,31 +1133,31 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>34.04</v>
       </c>
       <c r="D18">
-        <v>34.04</v>
+        <v>1.22</v>
       </c>
       <c r="E18">
-        <v>1.22</v>
+        <v>3.15</v>
       </c>
       <c r="F18">
-        <v>3.15</v>
+        <v>21.175000000000001</v>
       </c>
       <c r="G18">
-        <v>21.175000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H18">
-        <v>0.85</v>
+        <v>6.1</v>
       </c>
       <c r="I18">
-        <v>6.1</v>
+        <v>1.75</v>
       </c>
       <c r="J18">
-        <v>1.75</v>
+        <v>7.9749999999999996</v>
       </c>
       <c r="K18">
-        <v>7.9749999999999996</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1177,31 +1174,31 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>34.04</v>
       </c>
       <c r="D19">
-        <v>34.04</v>
+        <v>1.22</v>
       </c>
       <c r="E19">
-        <v>1.22</v>
+        <v>3.15</v>
       </c>
       <c r="F19">
-        <v>3.15</v>
+        <v>21.175000000000001</v>
       </c>
       <c r="G19">
-        <v>21.175000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H19">
-        <v>0.85</v>
+        <v>6.1</v>
       </c>
       <c r="I19">
-        <v>6.1</v>
+        <v>1.75</v>
       </c>
       <c r="J19">
-        <v>1.75</v>
+        <v>7.9749999999999996</v>
       </c>
       <c r="K19">
-        <v>7.9749999999999996</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1218,31 +1215,31 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>10.24</v>
       </c>
       <c r="D20">
-        <v>10.24</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="E20">
-        <v>0.84000000000000008</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F20">
-        <v>0.32500000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="G20">
-        <v>3.55</v>
+        <v>0.05</v>
       </c>
       <c r="H20">
-        <v>0.05</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I20">
-        <v>4.9000000000000004</v>
+        <v>1.65</v>
       </c>
       <c r="J20">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="K20">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1259,31 +1256,31 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>10.24</v>
       </c>
       <c r="D21">
-        <v>10.24</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="E21">
-        <v>0.84000000000000008</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F21">
-        <v>0.32500000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="G21">
-        <v>3.55</v>
+        <v>0.05</v>
       </c>
       <c r="H21">
-        <v>0.05</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I21">
-        <v>4.9000000000000004</v>
+        <v>1.65</v>
       </c>
       <c r="J21">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="K21">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1300,31 +1297,31 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>10.24</v>
       </c>
       <c r="D22">
-        <v>10.24</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="E22">
-        <v>0.84000000000000008</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F22">
-        <v>0.32500000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="G22">
-        <v>3.55</v>
+        <v>0.05</v>
       </c>
       <c r="H22">
-        <v>0.05</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I22">
-        <v>4.9000000000000004</v>
+        <v>1.65</v>
       </c>
       <c r="J22">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="K22">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1341,31 +1338,31 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>10.24</v>
       </c>
       <c r="D23">
-        <v>10.24</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="E23">
-        <v>0.84000000000000008</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F23">
-        <v>0.32500000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="G23">
-        <v>3.55</v>
+        <v>0.05</v>
       </c>
       <c r="H23">
-        <v>0.05</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I23">
-        <v>4.9000000000000004</v>
+        <v>1.65</v>
       </c>
       <c r="J23">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="K23">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1382,31 +1379,31 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>21.34</v>
       </c>
       <c r="D24">
-        <v>21.34</v>
+        <v>1.08</v>
       </c>
       <c r="E24">
-        <v>1.08</v>
+        <v>0.62</v>
       </c>
       <c r="F24">
-        <v>0.62</v>
+        <v>11.34</v>
       </c>
       <c r="G24">
-        <v>11.34</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="H24">
-        <v>0.22000000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="I24">
-        <v>4.5</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="J24">
-        <v>1.3599999999999999</v>
+        <v>2.2399999999999998</v>
       </c>
       <c r="K24">
-        <v>2.2399999999999998</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1423,31 +1420,31 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>21.34</v>
       </c>
       <c r="D25">
-        <v>21.34</v>
+        <v>1.08</v>
       </c>
       <c r="E25">
-        <v>1.08</v>
+        <v>0.62</v>
       </c>
       <c r="F25">
-        <v>0.62</v>
+        <v>11.34</v>
       </c>
       <c r="G25">
-        <v>11.34</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="H25">
-        <v>0.22000000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="I25">
-        <v>4.5</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="J25">
-        <v>1.3599999999999999</v>
+        <v>2.2399999999999998</v>
       </c>
       <c r="K25">
-        <v>2.2399999999999998</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1464,31 +1461,31 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>21.34</v>
       </c>
       <c r="D26">
-        <v>21.34</v>
+        <v>1.08</v>
       </c>
       <c r="E26">
-        <v>1.08</v>
+        <v>0.62</v>
       </c>
       <c r="F26">
-        <v>0.62</v>
+        <v>11.34</v>
       </c>
       <c r="G26">
-        <v>11.34</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="H26">
-        <v>0.22000000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="I26">
-        <v>4.5</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="J26">
-        <v>1.3599999999999999</v>
+        <v>2.2399999999999998</v>
       </c>
       <c r="K26">
-        <v>2.2399999999999998</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1505,31 +1502,31 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>21.34</v>
       </c>
       <c r="D27">
-        <v>21.34</v>
+        <v>1.08</v>
       </c>
       <c r="E27">
-        <v>1.08</v>
+        <v>0.62</v>
       </c>
       <c r="F27">
-        <v>0.62</v>
+        <v>11.34</v>
       </c>
       <c r="G27">
-        <v>11.34</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="H27">
-        <v>0.22000000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="I27">
-        <v>4.5</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="J27">
-        <v>1.3599999999999999</v>
+        <v>2.2399999999999998</v>
       </c>
       <c r="K27">
-        <v>2.2399999999999998</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1546,31 +1543,31 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>21.34</v>
       </c>
       <c r="D28">
-        <v>21.34</v>
+        <v>1.08</v>
       </c>
       <c r="E28">
-        <v>1.08</v>
+        <v>0.62</v>
       </c>
       <c r="F28">
-        <v>0.62</v>
+        <v>11.34</v>
       </c>
       <c r="G28">
-        <v>11.34</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="H28">
-        <v>0.22000000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="I28">
-        <v>4.5</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="J28">
-        <v>1.3599999999999999</v>
+        <v>2.2399999999999998</v>
       </c>
       <c r="K28">
-        <v>2.2399999999999998</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1584,37 +1581,37 @@
         <v>2016</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>14.84</v>
       </c>
       <c r="D29">
-        <v>14.84</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="E29">
-        <v>0.88000000000000012</v>
+        <v>0.125</v>
       </c>
       <c r="F29">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="G29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H29">
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="I29">
+        <v>1.85</v>
+      </c>
+      <c r="J29">
         <v>1.05</v>
       </c>
-      <c r="H29">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I29">
-        <v>5.7249999999999996</v>
-      </c>
-      <c r="J29">
-        <v>1.85</v>
-      </c>
       <c r="K29">
-        <v>1.05</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L29">
-        <v>0.67500000000000004</v>
+        <v>6.7750000000000004</v>
       </c>
       <c r="M29">
         <v>6.7750000000000004</v>
@@ -1625,37 +1622,37 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>14.84</v>
       </c>
       <c r="D30">
-        <v>14.84</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="E30">
-        <v>0.88000000000000012</v>
+        <v>0.125</v>
       </c>
       <c r="F30">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="G30">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H30">
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="I30">
+        <v>1.85</v>
+      </c>
+      <c r="J30">
         <v>1.05</v>
       </c>
-      <c r="H30">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I30">
-        <v>5.7249999999999996</v>
-      </c>
-      <c r="J30">
-        <v>1.85</v>
-      </c>
       <c r="K30">
-        <v>1.05</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L30">
-        <v>0.67500000000000004</v>
+        <v>6.7750000000000004</v>
       </c>
       <c r="M30">
         <v>6.7750000000000004</v>
@@ -1666,37 +1663,37 @@
         <v>2016</v>
       </c>
       <c r="B31">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>14.84</v>
       </c>
       <c r="D31">
-        <v>14.84</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="E31">
-        <v>0.88000000000000012</v>
+        <v>0.125</v>
       </c>
       <c r="F31">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="G31">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H31">
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="I31">
+        <v>1.85</v>
+      </c>
+      <c r="J31">
         <v>1.05</v>
       </c>
-      <c r="H31">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I31">
-        <v>5.7249999999999996</v>
-      </c>
-      <c r="J31">
-        <v>1.85</v>
-      </c>
       <c r="K31">
-        <v>1.05</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L31">
-        <v>0.67500000000000004</v>
+        <v>6.7750000000000004</v>
       </c>
       <c r="M31">
         <v>6.7750000000000004</v>
@@ -1707,37 +1704,37 @@
         <v>2016</v>
       </c>
       <c r="B32">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>14.84</v>
       </c>
       <c r="D32">
-        <v>14.84</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="E32">
-        <v>0.88000000000000012</v>
+        <v>0.125</v>
       </c>
       <c r="F32">
-        <v>0.125</v>
+        <v>1.05</v>
       </c>
       <c r="G32">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H32">
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="I32">
+        <v>1.85</v>
+      </c>
+      <c r="J32">
         <v>1.05</v>
       </c>
-      <c r="H32">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I32">
-        <v>5.7249999999999996</v>
-      </c>
-      <c r="J32">
-        <v>1.85</v>
-      </c>
       <c r="K32">
-        <v>1.05</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L32">
-        <v>0.67500000000000004</v>
+        <v>6.7750000000000004</v>
       </c>
       <c r="M32">
         <v>6.7750000000000004</v>
@@ -1748,34 +1745,34 @@
         <v>2016</v>
       </c>
       <c r="B33">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="D33">
-        <v>9.620000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="E33">
-        <v>0.52</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F33">
-        <v>0.47499999999999998</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="G33">
-        <v>2.9249999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="H33">
-        <v>0.15</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="I33">
-        <v>4.9749999999999996</v>
+        <v>1.625</v>
       </c>
       <c r="J33">
-        <v>1.625</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="K33">
-        <v>1.2250000000000001</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -1789,34 +1786,34 @@
         <v>2016</v>
       </c>
       <c r="B34">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="D34">
-        <v>9.620000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="E34">
-        <v>0.52</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F34">
-        <v>0.47499999999999998</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="G34">
-        <v>2.9249999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="H34">
-        <v>0.15</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="I34">
-        <v>4.9749999999999996</v>
+        <v>1.625</v>
       </c>
       <c r="J34">
-        <v>1.625</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="K34">
-        <v>1.2250000000000001</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -1830,34 +1827,34 @@
         <v>2016</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="D35">
-        <v>9.620000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="E35">
-        <v>0.52</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F35">
-        <v>0.47499999999999998</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="G35">
-        <v>2.9249999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="H35">
-        <v>0.15</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="I35">
-        <v>4.9749999999999996</v>
+        <v>1.625</v>
       </c>
       <c r="J35">
-        <v>1.625</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="K35">
-        <v>1.2250000000000001</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -1871,34 +1868,34 @@
         <v>2016</v>
       </c>
       <c r="B36">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="D36">
-        <v>9.620000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="E36">
-        <v>0.52</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F36">
-        <v>0.47499999999999998</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="G36">
-        <v>2.9249999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="H36">
-        <v>0.15</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="I36">
-        <v>4.9749999999999996</v>
+        <v>1.625</v>
       </c>
       <c r="J36">
-        <v>1.625</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="K36">
-        <v>1.2250000000000001</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -1912,37 +1909,37 @@
         <v>2016</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>1.86</v>
       </c>
       <c r="E37">
-        <v>1.86</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="F37">
-        <v>0.42000000000000004</v>
+        <v>8.32</v>
       </c>
       <c r="G37">
-        <v>8.32</v>
+        <v>0.08</v>
       </c>
       <c r="H37">
-        <v>0.08</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="I37">
-        <v>3.6799999999999997</v>
+        <v>1.24</v>
       </c>
       <c r="J37">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="K37">
-        <v>1.04</v>
+        <v>0.18</v>
       </c>
       <c r="L37">
-        <v>0.18</v>
+        <v>3.18</v>
       </c>
       <c r="M37">
         <v>3.18</v>
@@ -1953,37 +1950,37 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>1.86</v>
       </c>
       <c r="E38">
-        <v>1.86</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="F38">
-        <v>0.42000000000000004</v>
+        <v>8.32</v>
       </c>
       <c r="G38">
-        <v>8.32</v>
+        <v>0.08</v>
       </c>
       <c r="H38">
-        <v>0.08</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="I38">
-        <v>3.6799999999999997</v>
+        <v>1.24</v>
       </c>
       <c r="J38">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="K38">
-        <v>1.04</v>
+        <v>0.18</v>
       </c>
       <c r="L38">
-        <v>0.18</v>
+        <v>3.18</v>
       </c>
       <c r="M38">
         <v>3.18</v>
@@ -1994,37 +1991,37 @@
         <v>2016</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>1.86</v>
       </c>
       <c r="E39">
-        <v>1.86</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="F39">
-        <v>0.42000000000000004</v>
+        <v>8.32</v>
       </c>
       <c r="G39">
-        <v>8.32</v>
+        <v>0.08</v>
       </c>
       <c r="H39">
-        <v>0.08</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="I39">
-        <v>3.6799999999999997</v>
+        <v>1.24</v>
       </c>
       <c r="J39">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="K39">
-        <v>1.04</v>
+        <v>0.18</v>
       </c>
       <c r="L39">
-        <v>0.18</v>
+        <v>3.18</v>
       </c>
       <c r="M39">
         <v>3.18</v>
@@ -2035,37 +2032,37 @@
         <v>2016</v>
       </c>
       <c r="B40">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>1.86</v>
       </c>
       <c r="E40">
-        <v>1.86</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="F40">
-        <v>0.42000000000000004</v>
+        <v>8.32</v>
       </c>
       <c r="G40">
-        <v>8.32</v>
+        <v>0.08</v>
       </c>
       <c r="H40">
-        <v>0.08</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="I40">
-        <v>3.6799999999999997</v>
+        <v>1.24</v>
       </c>
       <c r="J40">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="K40">
-        <v>1.04</v>
+        <v>0.18</v>
       </c>
       <c r="L40">
-        <v>0.18</v>
+        <v>3.18</v>
       </c>
       <c r="M40">
         <v>3.18</v>
@@ -2076,37 +2073,37 @@
         <v>2016</v>
       </c>
       <c r="B41">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>1.86</v>
       </c>
       <c r="E41">
-        <v>1.86</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="F41">
-        <v>0.42000000000000004</v>
+        <v>8.32</v>
       </c>
       <c r="G41">
-        <v>8.32</v>
+        <v>0.08</v>
       </c>
       <c r="H41">
-        <v>0.08</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="I41">
-        <v>3.6799999999999997</v>
+        <v>1.24</v>
       </c>
       <c r="J41">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="K41">
-        <v>1.04</v>
+        <v>0.18</v>
       </c>
       <c r="L41">
-        <v>0.18</v>
+        <v>3.18</v>
       </c>
       <c r="M41">
         <v>3.18</v>
@@ -2117,34 +2114,34 @@
         <v>2016</v>
       </c>
       <c r="B42">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>11.36</v>
       </c>
       <c r="D42">
-        <v>11.36</v>
+        <v>1.04</v>
       </c>
       <c r="E42">
-        <v>1.04</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F42">
-        <v>0.22500000000000001</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="G42">
-        <v>6.0750000000000002</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4.125</v>
       </c>
       <c r="I42">
-        <v>4.125</v>
+        <v>1.425</v>
       </c>
       <c r="J42">
-        <v>1.425</v>
+        <v>1.05</v>
       </c>
       <c r="K42">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2158,34 +2155,34 @@
         <v>2016</v>
       </c>
       <c r="B43">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>11.36</v>
       </c>
       <c r="D43">
-        <v>11.36</v>
+        <v>1.04</v>
       </c>
       <c r="E43">
-        <v>1.04</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F43">
-        <v>0.22500000000000001</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="G43">
-        <v>6.0750000000000002</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4.125</v>
       </c>
       <c r="I43">
-        <v>4.125</v>
+        <v>1.425</v>
       </c>
       <c r="J43">
-        <v>1.425</v>
+        <v>1.05</v>
       </c>
       <c r="K43">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2199,34 +2196,34 @@
         <v>2016</v>
       </c>
       <c r="B44">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>11.36</v>
       </c>
       <c r="D44">
-        <v>11.36</v>
+        <v>1.04</v>
       </c>
       <c r="E44">
-        <v>1.04</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F44">
-        <v>0.22500000000000001</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="G44">
-        <v>6.0750000000000002</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>4.125</v>
       </c>
       <c r="I44">
-        <v>4.125</v>
+        <v>1.425</v>
       </c>
       <c r="J44">
-        <v>1.425</v>
+        <v>1.05</v>
       </c>
       <c r="K44">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2240,34 +2237,34 @@
         <v>2016</v>
       </c>
       <c r="B45">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>11.36</v>
       </c>
       <c r="D45">
-        <v>11.36</v>
+        <v>1.04</v>
       </c>
       <c r="E45">
-        <v>1.04</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F45">
-        <v>0.22500000000000001</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="G45">
-        <v>6.0750000000000002</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4.125</v>
       </c>
       <c r="I45">
-        <v>4.125</v>
+        <v>1.425</v>
       </c>
       <c r="J45">
-        <v>1.425</v>
+        <v>1.05</v>
       </c>
       <c r="K45">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -2281,37 +2278,37 @@
         <v>2016</v>
       </c>
       <c r="B46">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>15.62</v>
       </c>
       <c r="D46">
-        <v>15.62</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="E46">
-        <v>0.27999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="F46">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="G46">
         <v>0.2</v>
       </c>
-      <c r="G46">
-        <v>7.9249999999999998</v>
-      </c>
       <c r="H46">
-        <v>0.2</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="I46">
-        <v>5.9249999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="J46">
-        <v>1.7</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="K46">
-        <v>1.7250000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L46">
-        <v>0.27500000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="M46">
         <v>1.25</v>
@@ -2322,37 +2319,37 @@
         <v>2016</v>
       </c>
       <c r="B47">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>15.62</v>
       </c>
       <c r="D47">
-        <v>15.62</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="E47">
-        <v>0.27999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="F47">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="G47">
         <v>0.2</v>
       </c>
-      <c r="G47">
-        <v>7.9249999999999998</v>
-      </c>
       <c r="H47">
-        <v>0.2</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="I47">
-        <v>5.9249999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="J47">
-        <v>1.7</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="K47">
-        <v>1.7250000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L47">
-        <v>0.27500000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="M47">
         <v>1.25</v>
@@ -2363,37 +2360,37 @@
         <v>2016</v>
       </c>
       <c r="B48">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>15.62</v>
       </c>
       <c r="D48">
-        <v>15.62</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="E48">
-        <v>0.27999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="F48">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="G48">
         <v>0.2</v>
       </c>
-      <c r="G48">
-        <v>7.9249999999999998</v>
-      </c>
       <c r="H48">
-        <v>0.2</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="I48">
-        <v>5.9249999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="J48">
-        <v>1.7</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="K48">
-        <v>1.7250000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L48">
-        <v>0.27500000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="M48">
         <v>1.25</v>
@@ -2404,37 +2401,37 @@
         <v>2016</v>
       </c>
       <c r="B49">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>15.62</v>
       </c>
       <c r="D49">
-        <v>15.62</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="E49">
-        <v>0.27999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="F49">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="G49">
         <v>0.2</v>
       </c>
-      <c r="G49">
-        <v>7.9249999999999998</v>
-      </c>
       <c r="H49">
-        <v>0.2</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="I49">
-        <v>5.9249999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="J49">
-        <v>1.7</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="K49">
-        <v>1.7250000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L49">
-        <v>0.27500000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="M49">
         <v>1.25</v>
@@ -2445,34 +2442,34 @@
         <v>2016</v>
       </c>
       <c r="B50">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C50">
+        <v>8.5599999999999987</v>
+      </c>
+      <c r="D50">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="E50">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F50">
         <v>5</v>
       </c>
-      <c r="D50">
-        <v>8.5599999999999987</v>
-      </c>
-      <c r="E50">
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="F50">
-        <v>0.27999999999999997</v>
-      </c>
       <c r="G50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I50">
-        <v>1.6</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="J50">
-        <v>0.55999999999999994</v>
+        <v>0.74</v>
       </c>
       <c r="K50">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2486,34 +2483,34 @@
         <v>2016</v>
       </c>
       <c r="B51">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C51">
+        <v>8.5599999999999987</v>
+      </c>
+      <c r="D51">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="E51">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F51">
         <v>5</v>
       </c>
-      <c r="D51">
-        <v>8.5599999999999987</v>
-      </c>
-      <c r="E51">
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="F51">
-        <v>0.27999999999999997</v>
-      </c>
       <c r="G51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I51">
-        <v>1.6</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="J51">
-        <v>0.55999999999999994</v>
+        <v>0.74</v>
       </c>
       <c r="K51">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2527,34 +2524,34 @@
         <v>2016</v>
       </c>
       <c r="B52">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C52">
+        <v>8.5599999999999987</v>
+      </c>
+      <c r="D52">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F52">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>8.5599999999999987</v>
-      </c>
-      <c r="E52">
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="F52">
-        <v>0.27999999999999997</v>
-      </c>
       <c r="G52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I52">
-        <v>1.6</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="J52">
-        <v>0.55999999999999994</v>
+        <v>0.74</v>
       </c>
       <c r="K52">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2568,34 +2565,34 @@
         <v>2016</v>
       </c>
       <c r="B53">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C53">
+        <v>8.5599999999999987</v>
+      </c>
+      <c r="D53">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="E53">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F53">
         <v>5</v>
       </c>
-      <c r="D53">
-        <v>8.5599999999999987</v>
-      </c>
-      <c r="E53">
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="F53">
-        <v>0.27999999999999997</v>
-      </c>
       <c r="G53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I53">
-        <v>1.6</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="J53">
-        <v>0.55999999999999994</v>
+        <v>0.74</v>
       </c>
       <c r="K53">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2609,34 +2606,34 @@
         <v>2016</v>
       </c>
       <c r="B54">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C54">
+        <v>8.5599999999999987</v>
+      </c>
+      <c r="D54">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="E54">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F54">
         <v>5</v>
       </c>
-      <c r="D54">
-        <v>8.5599999999999987</v>
-      </c>
-      <c r="E54">
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="F54">
-        <v>0.27999999999999997</v>
-      </c>
       <c r="G54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I54">
-        <v>1.6</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="J54">
-        <v>0.55999999999999994</v>
+        <v>0.74</v>
       </c>
       <c r="K54">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>

--- a/Capstone Project/BudgetAllocationNew.xlsx
+++ b/Capstone Project/BudgetAllocationNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\upgrad\data-science-projects-master (1)\data-science-projects-master\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D73C987-D48C-485C-89C9-EA439E285933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD2F84-AE99-428B-B487-4DBF1C7CFB67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676" xr2:uid="{F575F0FE-BC65-4845-9524-2AE5E21116C5}"/>
   </bookViews>
@@ -419,13 +419,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8577228-96AE-47D5-85B5-F66C8D155A87}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -477,28 +478,28 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>3.4200000000000004</v>
+        <v>34200000.000000007</v>
       </c>
       <c r="D2">
-        <v>0.04</v>
+        <v>400000</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>5000000</v>
       </c>
       <c r="F2">
-        <v>1.48</v>
+        <v>14800000</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.26</v>
+        <v>2600000</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>1000000</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -518,28 +519,28 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>3.4200000000000004</v>
+        <v>34200000.000000007</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>400000</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>5000000</v>
       </c>
       <c r="F3">
-        <v>1.48</v>
+        <v>14800000</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.26</v>
+        <v>2600000</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>1000000</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -559,28 +560,28 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>3.4200000000000004</v>
+        <v>34200000.000000007</v>
       </c>
       <c r="D4">
-        <v>0.04</v>
+        <v>400000</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>5000000</v>
       </c>
       <c r="F4">
-        <v>1.48</v>
+        <v>14800000</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.26</v>
+        <v>2600000</v>
       </c>
       <c r="I4">
-        <v>0.1</v>
+        <v>1000000</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -600,28 +601,28 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>3.4200000000000004</v>
+        <v>34200000.000000007</v>
       </c>
       <c r="D5">
-        <v>0.04</v>
+        <v>400000</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>5000000</v>
       </c>
       <c r="F5">
-        <v>1.48</v>
+        <v>14800000</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.26</v>
+        <v>2600000</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>1000000</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -641,28 +642,28 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>3.4200000000000004</v>
+        <v>34200000.000000007</v>
       </c>
       <c r="D6">
-        <v>0.04</v>
+        <v>400000</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>5000000</v>
       </c>
       <c r="F6">
-        <v>1.48</v>
+        <v>14800000</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.26</v>
+        <v>2600000</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>1000000</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -682,28 +683,28 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>1.02</v>
+        <v>10200000</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.32500000000000001</v>
+        <v>3250000</v>
       </c>
       <c r="F7">
-        <v>0.27500000000000002</v>
+        <v>2750000</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.5000000000000001E-2</v>
+        <v>250000</v>
       </c>
       <c r="I7">
-        <v>2.5000000000000001E-2</v>
+        <v>250000</v>
       </c>
       <c r="J7">
-        <v>0.625</v>
+        <v>6250000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -723,28 +724,28 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>1.02</v>
+        <v>10200000</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.32500000000000001</v>
+        <v>3250000</v>
       </c>
       <c r="F8">
-        <v>0.27500000000000002</v>
+        <v>2750000</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.5000000000000001E-2</v>
+        <v>250000</v>
       </c>
       <c r="I8">
-        <v>2.5000000000000001E-2</v>
+        <v>250000</v>
       </c>
       <c r="J8">
-        <v>0.625</v>
+        <v>6250000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -764,28 +765,28 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>1.02</v>
+        <v>10200000</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.32500000000000001</v>
+        <v>3250000</v>
       </c>
       <c r="F9">
-        <v>0.27500000000000002</v>
+        <v>2750000</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.5000000000000001E-2</v>
+        <v>250000</v>
       </c>
       <c r="I9">
-        <v>2.5000000000000001E-2</v>
+        <v>250000</v>
       </c>
       <c r="J9">
-        <v>0.625</v>
+        <v>6250000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -805,28 +806,28 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>1.02</v>
+        <v>10200000</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.32500000000000001</v>
+        <v>3250000</v>
       </c>
       <c r="F10">
-        <v>0.27500000000000002</v>
+        <v>2750000</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.5000000000000001E-2</v>
+        <v>250000</v>
       </c>
       <c r="I10">
-        <v>2.5000000000000001E-2</v>
+        <v>250000</v>
       </c>
       <c r="J10">
-        <v>0.625</v>
+        <v>6250000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -846,28 +847,28 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>19.259999999999998</v>
+        <v>192599999.99999997</v>
       </c>
       <c r="D11">
-        <v>0.78</v>
+        <v>7800000</v>
       </c>
       <c r="E11">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F11">
-        <v>12.559999999999999</v>
+        <v>125599999.99999999</v>
       </c>
       <c r="G11">
-        <v>0.12</v>
+        <v>1200000</v>
       </c>
       <c r="H11">
-        <v>3.28</v>
+        <v>32799999.999999996</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="J11">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -887,28 +888,28 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>19.259999999999998</v>
+        <v>192599999.99999997</v>
       </c>
       <c r="D12">
-        <v>0.78</v>
+        <v>7800000</v>
       </c>
       <c r="E12">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F12">
-        <v>12.559999999999999</v>
+        <v>125599999.99999999</v>
       </c>
       <c r="G12">
-        <v>0.12</v>
+        <v>1200000</v>
       </c>
       <c r="H12">
-        <v>3.28</v>
+        <v>32799999.999999996</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="J12">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -928,28 +929,28 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>19.259999999999998</v>
+        <v>192599999.99999997</v>
       </c>
       <c r="D13">
-        <v>0.78</v>
+        <v>7800000</v>
       </c>
       <c r="E13">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F13">
-        <v>12.559999999999999</v>
+        <v>125599999.99999999</v>
       </c>
       <c r="G13">
-        <v>0.12</v>
+        <v>1200000</v>
       </c>
       <c r="H13">
-        <v>3.28</v>
+        <v>32799999.999999996</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="J13">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -969,28 +970,28 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>19.259999999999998</v>
+        <v>192599999.99999997</v>
       </c>
       <c r="D14">
-        <v>0.78</v>
+        <v>7800000</v>
       </c>
       <c r="E14">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F14">
-        <v>12.559999999999999</v>
+        <v>125599999.99999999</v>
       </c>
       <c r="G14">
-        <v>0.12</v>
+        <v>1200000</v>
       </c>
       <c r="H14">
-        <v>3.28</v>
+        <v>32799999.999999996</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="J14">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1010,28 +1011,28 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>19.259999999999998</v>
+        <v>192599999.99999997</v>
       </c>
       <c r="D15">
-        <v>0.78</v>
+        <v>7800000</v>
       </c>
       <c r="E15">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F15">
-        <v>12.559999999999999</v>
+        <v>125599999.99999999</v>
       </c>
       <c r="G15">
-        <v>0.12</v>
+        <v>1200000</v>
       </c>
       <c r="H15">
-        <v>3.28</v>
+        <v>32799999.999999996</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="J15">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1051,28 +1052,28 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>34.04</v>
+        <v>340400000</v>
       </c>
       <c r="D16">
-        <v>1.22</v>
+        <v>12200000</v>
       </c>
       <c r="E16">
-        <v>3.15</v>
+        <v>31500000</v>
       </c>
       <c r="F16">
-        <v>21.175000000000001</v>
+        <v>211750000</v>
       </c>
       <c r="G16">
-        <v>0.85</v>
+        <v>8500000</v>
       </c>
       <c r="H16">
-        <v>6.1</v>
+        <v>61000000</v>
       </c>
       <c r="I16">
-        <v>1.75</v>
+        <v>17500000</v>
       </c>
       <c r="J16">
-        <v>7.9749999999999996</v>
+        <v>79750000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1092,28 +1093,28 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>34.04</v>
+        <v>340400000</v>
       </c>
       <c r="D17">
-        <v>1.22</v>
+        <v>12200000</v>
       </c>
       <c r="E17">
-        <v>3.15</v>
+        <v>31500000</v>
       </c>
       <c r="F17">
-        <v>21.175000000000001</v>
+        <v>211750000</v>
       </c>
       <c r="G17">
-        <v>0.85</v>
+        <v>8500000</v>
       </c>
       <c r="H17">
-        <v>6.1</v>
+        <v>61000000</v>
       </c>
       <c r="I17">
-        <v>1.75</v>
+        <v>17500000</v>
       </c>
       <c r="J17">
-        <v>7.9749999999999996</v>
+        <v>79750000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1133,28 +1134,28 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>34.04</v>
+        <v>340400000</v>
       </c>
       <c r="D18">
-        <v>1.22</v>
+        <v>12200000</v>
       </c>
       <c r="E18">
-        <v>3.15</v>
+        <v>31500000</v>
       </c>
       <c r="F18">
-        <v>21.175000000000001</v>
+        <v>211750000</v>
       </c>
       <c r="G18">
-        <v>0.85</v>
+        <v>8500000</v>
       </c>
       <c r="H18">
-        <v>6.1</v>
+        <v>61000000</v>
       </c>
       <c r="I18">
-        <v>1.75</v>
+        <v>17500000</v>
       </c>
       <c r="J18">
-        <v>7.9749999999999996</v>
+        <v>79750000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1174,28 +1175,28 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>34.04</v>
+        <v>340400000</v>
       </c>
       <c r="D19">
-        <v>1.22</v>
+        <v>12200000</v>
       </c>
       <c r="E19">
-        <v>3.15</v>
+        <v>31500000</v>
       </c>
       <c r="F19">
-        <v>21.175000000000001</v>
+        <v>211750000</v>
       </c>
       <c r="G19">
-        <v>0.85</v>
+        <v>8500000</v>
       </c>
       <c r="H19">
-        <v>6.1</v>
+        <v>61000000</v>
       </c>
       <c r="I19">
-        <v>1.75</v>
+        <v>17500000</v>
       </c>
       <c r="J19">
-        <v>7.9749999999999996</v>
+        <v>79750000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1215,28 +1216,28 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>10.24</v>
+        <v>102400000</v>
       </c>
       <c r="D20">
-        <v>0.84000000000000008</v>
+        <v>8400000</v>
       </c>
       <c r="E20">
-        <v>0.32500000000000001</v>
+        <v>3250000</v>
       </c>
       <c r="F20">
-        <v>3.55</v>
+        <v>35500000</v>
       </c>
       <c r="G20">
-        <v>0.05</v>
+        <v>500000</v>
       </c>
       <c r="H20">
-        <v>4.9000000000000004</v>
+        <v>49000000</v>
       </c>
       <c r="I20">
-        <v>1.65</v>
+        <v>16500000</v>
       </c>
       <c r="J20">
-        <v>1.3</v>
+        <v>13000000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1256,28 +1257,28 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>10.24</v>
+        <v>102400000</v>
       </c>
       <c r="D21">
-        <v>0.84000000000000008</v>
+        <v>8400000</v>
       </c>
       <c r="E21">
-        <v>0.32500000000000001</v>
+        <v>3250000</v>
       </c>
       <c r="F21">
-        <v>3.55</v>
+        <v>35500000</v>
       </c>
       <c r="G21">
-        <v>0.05</v>
+        <v>500000</v>
       </c>
       <c r="H21">
-        <v>4.9000000000000004</v>
+        <v>49000000</v>
       </c>
       <c r="I21">
-        <v>1.65</v>
+        <v>16500000</v>
       </c>
       <c r="J21">
-        <v>1.3</v>
+        <v>13000000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1297,28 +1298,28 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>10.24</v>
+        <v>102400000</v>
       </c>
       <c r="D22">
-        <v>0.84000000000000008</v>
+        <v>8400000</v>
       </c>
       <c r="E22">
-        <v>0.32500000000000001</v>
+        <v>3250000</v>
       </c>
       <c r="F22">
-        <v>3.55</v>
+        <v>35500000</v>
       </c>
       <c r="G22">
-        <v>0.05</v>
+        <v>500000</v>
       </c>
       <c r="H22">
-        <v>4.9000000000000004</v>
+        <v>49000000</v>
       </c>
       <c r="I22">
-        <v>1.65</v>
+        <v>16500000</v>
       </c>
       <c r="J22">
-        <v>1.3</v>
+        <v>13000000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1338,28 +1339,28 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>10.24</v>
+        <v>102400000</v>
       </c>
       <c r="D23">
-        <v>0.84000000000000008</v>
+        <v>8400000</v>
       </c>
       <c r="E23">
-        <v>0.32500000000000001</v>
+        <v>3250000</v>
       </c>
       <c r="F23">
-        <v>3.55</v>
+        <v>35500000</v>
       </c>
       <c r="G23">
-        <v>0.05</v>
+        <v>500000</v>
       </c>
       <c r="H23">
-        <v>4.9000000000000004</v>
+        <v>49000000</v>
       </c>
       <c r="I23">
-        <v>1.65</v>
+        <v>16500000</v>
       </c>
       <c r="J23">
-        <v>1.3</v>
+        <v>13000000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1379,28 +1380,28 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>21.34</v>
+        <v>213400000</v>
       </c>
       <c r="D24">
-        <v>1.08</v>
+        <v>10800000</v>
       </c>
       <c r="E24">
-        <v>0.62</v>
+        <v>6200000</v>
       </c>
       <c r="F24">
-        <v>11.34</v>
+        <v>113400000</v>
       </c>
       <c r="G24">
-        <v>0.22000000000000003</v>
+        <v>2200000.0000000005</v>
       </c>
       <c r="H24">
-        <v>4.5</v>
+        <v>45000000</v>
       </c>
       <c r="I24">
-        <v>1.3599999999999999</v>
+        <v>13599999.999999998</v>
       </c>
       <c r="J24">
-        <v>2.2399999999999998</v>
+        <v>22399999.999999996</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1420,28 +1421,28 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>21.34</v>
+        <v>213400000</v>
       </c>
       <c r="D25">
-        <v>1.08</v>
+        <v>10800000</v>
       </c>
       <c r="E25">
-        <v>0.62</v>
+        <v>6200000</v>
       </c>
       <c r="F25">
-        <v>11.34</v>
+        <v>113400000</v>
       </c>
       <c r="G25">
-        <v>0.22000000000000003</v>
+        <v>2200000.0000000005</v>
       </c>
       <c r="H25">
-        <v>4.5</v>
+        <v>45000000</v>
       </c>
       <c r="I25">
-        <v>1.3599999999999999</v>
+        <v>13599999.999999998</v>
       </c>
       <c r="J25">
-        <v>2.2399999999999998</v>
+        <v>22399999.999999996</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1461,28 +1462,28 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>21.34</v>
+        <v>213400000</v>
       </c>
       <c r="D26">
-        <v>1.08</v>
+        <v>10800000</v>
       </c>
       <c r="E26">
-        <v>0.62</v>
+        <v>6200000</v>
       </c>
       <c r="F26">
-        <v>11.34</v>
+        <v>113400000</v>
       </c>
       <c r="G26">
-        <v>0.22000000000000003</v>
+        <v>2200000.0000000005</v>
       </c>
       <c r="H26">
-        <v>4.5</v>
+        <v>45000000</v>
       </c>
       <c r="I26">
-        <v>1.3599999999999999</v>
+        <v>13599999.999999998</v>
       </c>
       <c r="J26">
-        <v>2.2399999999999998</v>
+        <v>22399999.999999996</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1502,28 +1503,28 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>21.34</v>
+        <v>213400000</v>
       </c>
       <c r="D27">
-        <v>1.08</v>
+        <v>10800000</v>
       </c>
       <c r="E27">
-        <v>0.62</v>
+        <v>6200000</v>
       </c>
       <c r="F27">
-        <v>11.34</v>
+        <v>113400000</v>
       </c>
       <c r="G27">
-        <v>0.22000000000000003</v>
+        <v>2200000.0000000005</v>
       </c>
       <c r="H27">
-        <v>4.5</v>
+        <v>45000000</v>
       </c>
       <c r="I27">
-        <v>1.3599999999999999</v>
+        <v>13599999.999999998</v>
       </c>
       <c r="J27">
-        <v>2.2399999999999998</v>
+        <v>22399999.999999996</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1543,28 +1544,28 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>21.34</v>
+        <v>213400000</v>
       </c>
       <c r="D28">
-        <v>1.08</v>
+        <v>10800000</v>
       </c>
       <c r="E28">
-        <v>0.62</v>
+        <v>6200000</v>
       </c>
       <c r="F28">
-        <v>11.34</v>
+        <v>113400000</v>
       </c>
       <c r="G28">
-        <v>0.22000000000000003</v>
+        <v>2200000.0000000005</v>
       </c>
       <c r="H28">
-        <v>4.5</v>
+        <v>45000000</v>
       </c>
       <c r="I28">
-        <v>1.3599999999999999</v>
+        <v>13599999.999999998</v>
       </c>
       <c r="J28">
-        <v>2.2399999999999998</v>
+        <v>22399999.999999996</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1584,37 +1585,37 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>14.84</v>
+        <v>148400000</v>
       </c>
       <c r="D29">
-        <v>0.88000000000000012</v>
+        <v>8800000.0000000019</v>
       </c>
       <c r="E29">
-        <v>0.125</v>
+        <v>1250000</v>
       </c>
       <c r="F29">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="G29">
-        <v>0.22500000000000001</v>
+        <v>2250000</v>
       </c>
       <c r="H29">
-        <v>5.7249999999999996</v>
+        <v>57250000</v>
       </c>
       <c r="I29">
-        <v>1.85</v>
+        <v>18500000</v>
       </c>
       <c r="J29">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="K29">
-        <v>0.67500000000000004</v>
+        <v>6750000</v>
       </c>
       <c r="L29">
-        <v>6.7750000000000004</v>
+        <v>67750000</v>
       </c>
       <c r="M29">
-        <v>6.7750000000000004</v>
+        <v>67750000</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1625,37 +1626,37 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>14.84</v>
+        <v>148400000</v>
       </c>
       <c r="D30">
-        <v>0.88000000000000012</v>
+        <v>8800000.0000000019</v>
       </c>
       <c r="E30">
-        <v>0.125</v>
+        <v>1250000</v>
       </c>
       <c r="F30">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="G30">
-        <v>0.22500000000000001</v>
+        <v>2250000</v>
       </c>
       <c r="H30">
-        <v>5.7249999999999996</v>
+        <v>57250000</v>
       </c>
       <c r="I30">
-        <v>1.85</v>
+        <v>18500000</v>
       </c>
       <c r="J30">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="K30">
-        <v>0.67500000000000004</v>
+        <v>6750000</v>
       </c>
       <c r="L30">
-        <v>6.7750000000000004</v>
+        <v>67750000</v>
       </c>
       <c r="M30">
-        <v>6.7750000000000004</v>
+        <v>67750000</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1666,37 +1667,37 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>14.84</v>
+        <v>148400000</v>
       </c>
       <c r="D31">
-        <v>0.88000000000000012</v>
+        <v>8800000.0000000019</v>
       </c>
       <c r="E31">
-        <v>0.125</v>
+        <v>1250000</v>
       </c>
       <c r="F31">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="G31">
-        <v>0.22500000000000001</v>
+        <v>2250000</v>
       </c>
       <c r="H31">
-        <v>5.7249999999999996</v>
+        <v>57250000</v>
       </c>
       <c r="I31">
-        <v>1.85</v>
+        <v>18500000</v>
       </c>
       <c r="J31">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="K31">
-        <v>0.67500000000000004</v>
+        <v>6750000</v>
       </c>
       <c r="L31">
-        <v>6.7750000000000004</v>
+        <v>67750000</v>
       </c>
       <c r="M31">
-        <v>6.7750000000000004</v>
+        <v>67750000</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1707,37 +1708,37 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>14.84</v>
+        <v>148400000</v>
       </c>
       <c r="D32">
-        <v>0.88000000000000012</v>
+        <v>8800000.0000000019</v>
       </c>
       <c r="E32">
-        <v>0.125</v>
+        <v>1250000</v>
       </c>
       <c r="F32">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="G32">
-        <v>0.22500000000000001</v>
+        <v>2250000</v>
       </c>
       <c r="H32">
-        <v>5.7249999999999996</v>
+        <v>57250000</v>
       </c>
       <c r="I32">
-        <v>1.85</v>
+        <v>18500000</v>
       </c>
       <c r="J32">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="K32">
-        <v>0.67500000000000004</v>
+        <v>6750000</v>
       </c>
       <c r="L32">
-        <v>6.7750000000000004</v>
+        <v>67750000</v>
       </c>
       <c r="M32">
-        <v>6.7750000000000004</v>
+        <v>67750000</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1748,28 +1749,28 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>9.620000000000001</v>
+        <v>96200000.000000015</v>
       </c>
       <c r="D33">
-        <v>0.52</v>
+        <v>5200000</v>
       </c>
       <c r="E33">
-        <v>0.47499999999999998</v>
+        <v>4750000</v>
       </c>
       <c r="F33">
-        <v>2.9249999999999998</v>
+        <v>29250000</v>
       </c>
       <c r="G33">
-        <v>0.15</v>
+        <v>1500000</v>
       </c>
       <c r="H33">
-        <v>4.9749999999999996</v>
+        <v>49750000</v>
       </c>
       <c r="I33">
-        <v>1.625</v>
+        <v>16250000</v>
       </c>
       <c r="J33">
-        <v>1.2250000000000001</v>
+        <v>12250000</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1789,28 +1790,28 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>9.620000000000001</v>
+        <v>96200000.000000015</v>
       </c>
       <c r="D34">
-        <v>0.52</v>
+        <v>5200000</v>
       </c>
       <c r="E34">
-        <v>0.47499999999999998</v>
+        <v>4750000</v>
       </c>
       <c r="F34">
-        <v>2.9249999999999998</v>
+        <v>29250000</v>
       </c>
       <c r="G34">
-        <v>0.15</v>
+        <v>1500000</v>
       </c>
       <c r="H34">
-        <v>4.9749999999999996</v>
+        <v>49750000</v>
       </c>
       <c r="I34">
-        <v>1.625</v>
+        <v>16250000</v>
       </c>
       <c r="J34">
-        <v>1.2250000000000001</v>
+        <v>12250000</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1830,28 +1831,28 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>9.620000000000001</v>
+        <v>96200000.000000015</v>
       </c>
       <c r="D35">
-        <v>0.52</v>
+        <v>5200000</v>
       </c>
       <c r="E35">
-        <v>0.47499999999999998</v>
+        <v>4750000</v>
       </c>
       <c r="F35">
-        <v>2.9249999999999998</v>
+        <v>29250000</v>
       </c>
       <c r="G35">
-        <v>0.15</v>
+        <v>1500000</v>
       </c>
       <c r="H35">
-        <v>4.9749999999999996</v>
+        <v>49750000</v>
       </c>
       <c r="I35">
-        <v>1.625</v>
+        <v>16250000</v>
       </c>
       <c r="J35">
-        <v>1.2250000000000001</v>
+        <v>12250000</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1871,28 +1872,28 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>9.620000000000001</v>
+        <v>96200000.000000015</v>
       </c>
       <c r="D36">
-        <v>0.52</v>
+        <v>5200000</v>
       </c>
       <c r="E36">
-        <v>0.47499999999999998</v>
+        <v>4750000</v>
       </c>
       <c r="F36">
-        <v>2.9249999999999998</v>
+        <v>29250000</v>
       </c>
       <c r="G36">
-        <v>0.15</v>
+        <v>1500000</v>
       </c>
       <c r="H36">
-        <v>4.9749999999999996</v>
+        <v>49750000</v>
       </c>
       <c r="I36">
-        <v>1.625</v>
+        <v>16250000</v>
       </c>
       <c r="J36">
-        <v>1.2250000000000001</v>
+        <v>12250000</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1912,37 +1913,37 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>200000000</v>
       </c>
       <c r="D37">
-        <v>1.86</v>
+        <v>18600000</v>
       </c>
       <c r="E37">
-        <v>0.42000000000000004</v>
+        <v>4200000</v>
       </c>
       <c r="F37">
-        <v>8.32</v>
+        <v>83200000</v>
       </c>
       <c r="G37">
-        <v>0.08</v>
+        <v>800000</v>
       </c>
       <c r="H37">
-        <v>3.6799999999999997</v>
+        <v>36800000</v>
       </c>
       <c r="I37">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="J37">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="K37">
-        <v>0.18</v>
+        <v>1800000</v>
       </c>
       <c r="L37">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
       <c r="M37">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -1953,37 +1954,37 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>200000000</v>
       </c>
       <c r="D38">
-        <v>1.86</v>
+        <v>18600000</v>
       </c>
       <c r="E38">
-        <v>0.42000000000000004</v>
+        <v>4200000</v>
       </c>
       <c r="F38">
-        <v>8.32</v>
+        <v>83200000</v>
       </c>
       <c r="G38">
-        <v>0.08</v>
+        <v>800000</v>
       </c>
       <c r="H38">
-        <v>3.6799999999999997</v>
+        <v>36800000</v>
       </c>
       <c r="I38">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="J38">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="K38">
-        <v>0.18</v>
+        <v>1800000</v>
       </c>
       <c r="L38">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
       <c r="M38">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -1994,37 +1995,37 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>200000000</v>
       </c>
       <c r="D39">
-        <v>1.86</v>
+        <v>18600000</v>
       </c>
       <c r="E39">
-        <v>0.42000000000000004</v>
+        <v>4200000</v>
       </c>
       <c r="F39">
-        <v>8.32</v>
+        <v>83200000</v>
       </c>
       <c r="G39">
-        <v>0.08</v>
+        <v>800000</v>
       </c>
       <c r="H39">
-        <v>3.6799999999999997</v>
+        <v>36800000</v>
       </c>
       <c r="I39">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="J39">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="K39">
-        <v>0.18</v>
+        <v>1800000</v>
       </c>
       <c r="L39">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
       <c r="M39">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2035,37 +2036,37 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>200000000</v>
       </c>
       <c r="D40">
-        <v>1.86</v>
+        <v>18600000</v>
       </c>
       <c r="E40">
-        <v>0.42000000000000004</v>
+        <v>4200000</v>
       </c>
       <c r="F40">
-        <v>8.32</v>
+        <v>83200000</v>
       </c>
       <c r="G40">
-        <v>0.08</v>
+        <v>800000</v>
       </c>
       <c r="H40">
-        <v>3.6799999999999997</v>
+        <v>36800000</v>
       </c>
       <c r="I40">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="J40">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="K40">
-        <v>0.18</v>
+        <v>1800000</v>
       </c>
       <c r="L40">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
       <c r="M40">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2076,37 +2077,37 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>200000000</v>
       </c>
       <c r="D41">
-        <v>1.86</v>
+        <v>18600000</v>
       </c>
       <c r="E41">
-        <v>0.42000000000000004</v>
+        <v>4200000</v>
       </c>
       <c r="F41">
-        <v>8.32</v>
+        <v>83200000</v>
       </c>
       <c r="G41">
-        <v>0.08</v>
+        <v>800000</v>
       </c>
       <c r="H41">
-        <v>3.6799999999999997</v>
+        <v>36800000</v>
       </c>
       <c r="I41">
-        <v>1.24</v>
+        <v>12400000</v>
       </c>
       <c r="J41">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="K41">
-        <v>0.18</v>
+        <v>1800000</v>
       </c>
       <c r="L41">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
       <c r="M41">
-        <v>3.18</v>
+        <v>31800000</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2117,28 +2118,28 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>11.36</v>
+        <v>113600000</v>
       </c>
       <c r="D42">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="E42">
-        <v>0.22500000000000001</v>
+        <v>2250000</v>
       </c>
       <c r="F42">
-        <v>6.0750000000000002</v>
+        <v>60750000</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>4.125</v>
+        <v>41250000</v>
       </c>
       <c r="I42">
-        <v>1.425</v>
+        <v>14250000</v>
       </c>
       <c r="J42">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2158,28 +2159,28 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>11.36</v>
+        <v>113600000</v>
       </c>
       <c r="D43">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="E43">
-        <v>0.22500000000000001</v>
+        <v>2250000</v>
       </c>
       <c r="F43">
-        <v>6.0750000000000002</v>
+        <v>60750000</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4.125</v>
+        <v>41250000</v>
       </c>
       <c r="I43">
-        <v>1.425</v>
+        <v>14250000</v>
       </c>
       <c r="J43">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2199,28 +2200,28 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>11.36</v>
+        <v>113600000</v>
       </c>
       <c r="D44">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="E44">
-        <v>0.22500000000000001</v>
+        <v>2250000</v>
       </c>
       <c r="F44">
-        <v>6.0750000000000002</v>
+        <v>60750000</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>4.125</v>
+        <v>41250000</v>
       </c>
       <c r="I44">
-        <v>1.425</v>
+        <v>14250000</v>
       </c>
       <c r="J44">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2240,28 +2241,28 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>11.36</v>
+        <v>113600000</v>
       </c>
       <c r="D45">
-        <v>1.04</v>
+        <v>10400000</v>
       </c>
       <c r="E45">
-        <v>0.22500000000000001</v>
+        <v>2250000</v>
       </c>
       <c r="F45">
-        <v>6.0750000000000002</v>
+        <v>60750000</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>4.125</v>
+        <v>41250000</v>
       </c>
       <c r="I45">
-        <v>1.425</v>
+        <v>14250000</v>
       </c>
       <c r="J45">
-        <v>1.05</v>
+        <v>10500000</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2281,37 +2282,37 @@
         <v>17</v>
       </c>
       <c r="C46">
-        <v>15.62</v>
+        <v>156200000</v>
       </c>
       <c r="D46">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="E46">
-        <v>0.2</v>
+        <v>2000000</v>
       </c>
       <c r="F46">
-        <v>7.9249999999999998</v>
+        <v>79250000</v>
       </c>
       <c r="G46">
-        <v>0.2</v>
+        <v>2000000</v>
       </c>
       <c r="H46">
-        <v>5.9249999999999998</v>
+        <v>59250000</v>
       </c>
       <c r="I46">
-        <v>1.7</v>
+        <v>17000000</v>
       </c>
       <c r="J46">
-        <v>1.7250000000000001</v>
+        <v>17250000</v>
       </c>
       <c r="K46">
-        <v>0.27500000000000002</v>
+        <v>2750000</v>
       </c>
       <c r="L46">
-        <v>1.25</v>
+        <v>12500000</v>
       </c>
       <c r="M46">
-        <v>1.25</v>
+        <v>12500000</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2322,37 +2323,37 @@
         <v>18</v>
       </c>
       <c r="C47">
-        <v>15.62</v>
+        <v>156200000</v>
       </c>
       <c r="D47">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="E47">
-        <v>0.2</v>
+        <v>2000000</v>
       </c>
       <c r="F47">
-        <v>7.9249999999999998</v>
+        <v>79250000</v>
       </c>
       <c r="G47">
-        <v>0.2</v>
+        <v>2000000</v>
       </c>
       <c r="H47">
-        <v>5.9249999999999998</v>
+        <v>59250000</v>
       </c>
       <c r="I47">
-        <v>1.7</v>
+        <v>17000000</v>
       </c>
       <c r="J47">
-        <v>1.7250000000000001</v>
+        <v>17250000</v>
       </c>
       <c r="K47">
-        <v>0.27500000000000002</v>
+        <v>2750000</v>
       </c>
       <c r="L47">
-        <v>1.25</v>
+        <v>12500000</v>
       </c>
       <c r="M47">
-        <v>1.25</v>
+        <v>12500000</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2363,37 +2364,37 @@
         <v>19</v>
       </c>
       <c r="C48">
-        <v>15.62</v>
+        <v>156200000</v>
       </c>
       <c r="D48">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="E48">
-        <v>0.2</v>
+        <v>2000000</v>
       </c>
       <c r="F48">
-        <v>7.9249999999999998</v>
+        <v>79250000</v>
       </c>
       <c r="G48">
-        <v>0.2</v>
+        <v>2000000</v>
       </c>
       <c r="H48">
-        <v>5.9249999999999998</v>
+        <v>59250000</v>
       </c>
       <c r="I48">
-        <v>1.7</v>
+        <v>17000000</v>
       </c>
       <c r="J48">
-        <v>1.7250000000000001</v>
+        <v>17250000</v>
       </c>
       <c r="K48">
-        <v>0.27500000000000002</v>
+        <v>2750000</v>
       </c>
       <c r="L48">
-        <v>1.25</v>
+        <v>12500000</v>
       </c>
       <c r="M48">
-        <v>1.25</v>
+        <v>12500000</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2404,37 +2405,37 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>15.62</v>
+        <v>156200000</v>
       </c>
       <c r="D49">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="E49">
-        <v>0.2</v>
+        <v>2000000</v>
       </c>
       <c r="F49">
-        <v>7.9249999999999998</v>
+        <v>79250000</v>
       </c>
       <c r="G49">
-        <v>0.2</v>
+        <v>2000000</v>
       </c>
       <c r="H49">
-        <v>5.9249999999999998</v>
+        <v>59250000</v>
       </c>
       <c r="I49">
-        <v>1.7</v>
+        <v>17000000</v>
       </c>
       <c r="J49">
-        <v>1.7250000000000001</v>
+        <v>17250000</v>
       </c>
       <c r="K49">
-        <v>0.27500000000000002</v>
+        <v>2750000</v>
       </c>
       <c r="L49">
-        <v>1.25</v>
+        <v>12500000</v>
       </c>
       <c r="M49">
-        <v>1.25</v>
+        <v>12500000</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -2445,28 +2446,28 @@
         <v>21</v>
       </c>
       <c r="C50">
-        <v>8.5599999999999987</v>
+        <v>85599999.999999985</v>
       </c>
       <c r="D50">
-        <v>0.33999999999999997</v>
+        <v>3399999.9999999995</v>
       </c>
       <c r="E50">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>50000000</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1.6</v>
+        <v>16000000</v>
       </c>
       <c r="I50">
-        <v>0.55999999999999994</v>
+        <v>5599999.9999999991</v>
       </c>
       <c r="J50">
-        <v>0.74</v>
+        <v>7400000</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2486,28 +2487,28 @@
         <v>22</v>
       </c>
       <c r="C51">
-        <v>8.5599999999999987</v>
+        <v>85599999.999999985</v>
       </c>
       <c r="D51">
-        <v>0.33999999999999997</v>
+        <v>3399999.9999999995</v>
       </c>
       <c r="E51">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>50000000</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1.6</v>
+        <v>16000000</v>
       </c>
       <c r="I51">
-        <v>0.55999999999999994</v>
+        <v>5599999.9999999991</v>
       </c>
       <c r="J51">
-        <v>0.74</v>
+        <v>7400000</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2527,28 +2528,28 @@
         <v>23</v>
       </c>
       <c r="C52">
-        <v>8.5599999999999987</v>
+        <v>85599999.999999985</v>
       </c>
       <c r="D52">
-        <v>0.33999999999999997</v>
+        <v>3399999.9999999995</v>
       </c>
       <c r="E52">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>50000000</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1.6</v>
+        <v>16000000</v>
       </c>
       <c r="I52">
-        <v>0.55999999999999994</v>
+        <v>5599999.9999999991</v>
       </c>
       <c r="J52">
-        <v>0.74</v>
+        <v>7400000</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2568,28 +2569,28 @@
         <v>24</v>
       </c>
       <c r="C53">
-        <v>8.5599999999999987</v>
+        <v>85599999.999999985</v>
       </c>
       <c r="D53">
-        <v>0.33999999999999997</v>
+        <v>3399999.9999999995</v>
       </c>
       <c r="E53">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>50000000</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1.6</v>
+        <v>16000000</v>
       </c>
       <c r="I53">
-        <v>0.55999999999999994</v>
+        <v>5599999.9999999991</v>
       </c>
       <c r="J53">
-        <v>0.74</v>
+        <v>7400000</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2609,28 +2610,28 @@
         <v>25</v>
       </c>
       <c r="C54">
-        <v>8.5599999999999987</v>
+        <v>85599999.999999985</v>
       </c>
       <c r="D54">
-        <v>0.33999999999999997</v>
+        <v>3399999.9999999995</v>
       </c>
       <c r="E54">
-        <v>0.27999999999999997</v>
+        <v>2799999.9999999995</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>50000000</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1.6</v>
+        <v>16000000</v>
       </c>
       <c r="I54">
-        <v>0.55999999999999994</v>
+        <v>5599999.9999999991</v>
       </c>
       <c r="J54">
-        <v>0.74</v>
+        <v>7400000</v>
       </c>
       <c r="K54">
         <v>0</v>
